--- a/data/mag/ОН_Магистратура_2 курс ФЭВТ.xlsx
+++ b/data/mag/ОН_Магистратура_2 курс ФЭВТ.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Коптелова И.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">В-1301</t>
+    <t xml:space="preserve">В-1303</t>
   </si>
   <si>
     <t xml:space="preserve">Сивашова Е.С.</t>
@@ -348,6 +348,9 @@
     <t xml:space="preserve">Андреев А.Е.</t>
   </si>
   <si>
+    <t xml:space="preserve">В-1301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Егунов В.А.</t>
   </si>
   <si>
@@ -382,9 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">Абдрахманов В.Л.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В-1303</t>
   </si>
   <si>
     <t xml:space="preserve">Литовкин</t>
@@ -2686,14 +2686,14 @@
   <dimension ref="A1:FC368"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="50" zoomScalePageLayoutView="65" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="I193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="I4" activeCellId="0" sqref="I4"/>
-      <selection pane="bottomLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
-      <selection pane="bottomRight" activeCell="R206" activeCellId="0" sqref="R206"/>
+      <selection pane="topRight" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="S40" activeCellId="0" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="25.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="25.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.57"/>
@@ -6356,15 +6356,15 @@
       <c r="H84" s="61"/>
       <c r="I84" s="62"/>
       <c r="J84" s="108" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="K84" s="60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L84" s="61"/>
       <c r="M84" s="62"/>
       <c r="N84" s="109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O84" s="45"/>
       <c r="P84" s="45"/>
@@ -6387,20 +6387,20 @@
       <c r="AG84" s="98"/>
       <c r="AH84" s="98"/>
       <c r="AI84" s="114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ84" s="61"/>
       <c r="AK84" s="62"/>
       <c r="AL84" s="140" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM84" s="124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN84" s="61"/>
       <c r="AO84" s="62"/>
       <c r="AP84" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6421,13 +6421,13 @@
         <v>21</v>
       </c>
       <c r="G85" s="168" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="168"/>
       <c r="J85" s="168"/>
       <c r="K85" s="169" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L85" s="169"/>
       <c r="M85" s="169"/>
@@ -6442,7 +6442,7 @@
       <c r="AA85" s="31"/>
       <c r="AD85" s="32"/>
       <c r="AE85" s="127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF85" s="127"/>
       <c r="AG85" s="127"/>
@@ -6559,7 +6559,7 @@
       <c r="H88" s="164"/>
       <c r="I88" s="164"/>
       <c r="J88" s="165" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K88" s="166" t="s">
         <v>103</v>
@@ -6567,7 +6567,7 @@
       <c r="L88" s="166"/>
       <c r="M88" s="166"/>
       <c r="N88" s="167" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O88" s="56"/>
       <c r="P88" s="56"/>
@@ -6615,7 +6615,7 @@
       <c r="H89" s="164"/>
       <c r="I89" s="164"/>
       <c r="J89" s="165" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K89" s="166" t="s">
         <v>100</v>
@@ -6623,7 +6623,7 @@
       <c r="L89" s="166"/>
       <c r="M89" s="166"/>
       <c r="N89" s="167" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q89" s="0"/>
       <c r="S89" s="105" t="s">
@@ -6655,12 +6655,12 @@
       <c r="E90" s="50"/>
       <c r="F90" s="54"/>
       <c r="G90" s="123" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H90" s="61"/>
       <c r="I90" s="62"/>
       <c r="J90" s="108" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="K90" s="60" t="s">
         <v>86</v>
@@ -6668,7 +6668,7 @@
       <c r="L90" s="61"/>
       <c r="M90" s="62"/>
       <c r="N90" s="109" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Q90" s="0"/>
       <c r="S90" s="60" t="s">
@@ -6844,7 +6844,7 @@
       <c r="N94" s="32"/>
       <c r="Q94" s="0"/>
       <c r="S94" s="104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T94" s="104"/>
       <c r="U94" s="104"/>
@@ -7418,7 +7418,7 @@
         <v>126</v>
       </c>
       <c r="R102" s="178" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="S102" s="46"/>
       <c r="T102" s="45"/>
@@ -7537,7 +7537,7 @@
       <c r="P105" s="61"/>
       <c r="Q105" s="139"/>
       <c r="R105" s="113" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="S105" s="31"/>
       <c r="V105" s="32"/>
@@ -7770,7 +7770,7 @@
       <c r="P111" s="61"/>
       <c r="Q111" s="62"/>
       <c r="R111" s="108" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="S111" s="46"/>
       <c r="T111" s="45"/>
@@ -8552,7 +8552,7 @@
       <c r="AG127" s="0"/>
       <c r="AH127" s="32"/>
       <c r="AI127" s="114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ127" s="61"/>
       <c r="AK127" s="62"/>
@@ -8560,7 +8560,7 @@
         <v>71</v>
       </c>
       <c r="AM127" s="124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN127" s="61"/>
       <c r="AO127" s="62"/>
@@ -10403,7 +10403,7 @@
       <c r="AN169" s="90"/>
       <c r="AO169" s="91"/>
       <c r="AP169" s="217" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AQ169" s="216"/>
       <c r="AR169" s="218"/>
@@ -10670,7 +10670,7 @@
       <c r="AN175" s="61"/>
       <c r="AO175" s="62"/>
       <c r="AP175" s="172" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AQ175" s="154"/>
       <c r="AR175" s="154"/>
@@ -11675,7 +11675,7 @@
       <c r="P199" s="226"/>
       <c r="Q199" s="226"/>
       <c r="R199" s="140" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="S199" s="83" t="s">
         <v>168</v>
@@ -12475,7 +12475,7 @@
       <c r="AJ211" s="75"/>
       <c r="AK211" s="76"/>
       <c r="AL211" s="158" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM211" s="45"/>
       <c r="AN211" s="45"/>
@@ -12688,7 +12688,7 @@
       <c r="AJ217" s="61"/>
       <c r="AK217" s="62"/>
       <c r="AL217" s="109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO217" s="0"/>
       <c r="AP217" s="33"/>
